--- a/hhskb_doc/仕様/位置決め.xlsx
+++ b/hhskb_doc/仕様/位置決め.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yutaka_home\my_doc\Arduino\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yutaka_home\my_doc\git_work\hhskb\hhskb_doc\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,6 +22,102 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>1行め</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2行め</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3行め</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4行め</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5行め</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8列</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,15 +632,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>60</v>
       </c>
@@ -565,7 +678,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4">
         <v>60</v>
       </c>
@@ -586,7 +702,10 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5">
         <f>B4+19</f>
         <v>79</v>
@@ -608,9 +727,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6">
-        <f t="shared" ref="B6:B9" si="0">B5+19</f>
+        <f t="shared" ref="B6:B11" si="0">B5+19</f>
         <v>98</v>
       </c>
       <c r="C6">
@@ -630,7 +752,10 @@
         <v>102.75</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -652,7 +777,10 @@
         <v>121.75</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -674,7 +802,10 @@
         <v>140.75</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -696,10 +827,13 @@
         <v>159.75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
       <c r="B10">
-        <f>B9+19/2+19</f>
-        <v>183.5</v>
+        <f t="shared" si="0"/>
+        <v>174</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -718,7 +852,14 @@
         <v>185.875</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
       <c r="C11">
         <f>C10+(19*1.5)/2+19/2</f>
         <v>188.25</v>
